--- a/output/fit_clients/fit_round_146.xlsx
+++ b/output/fit_clients/fit_round_146.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1776452298.285378</v>
+        <v>1809022823.777883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07491965336051055</v>
+        <v>0.08923875840851872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04398598290160841</v>
+        <v>0.03391790170548397</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>888226114.6859107</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1914488741.848357</v>
+        <v>2261386147.657692</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1367100046018266</v>
+        <v>0.1445727467672012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03862330790383579</v>
+        <v>0.0359056835023867</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>957244397.7003797</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3385648107.052539</v>
+        <v>4706957855.563256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1560092412605578</v>
+        <v>0.1393006643426038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02762884989517506</v>
+        <v>0.03337972048927649</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>53</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1692824024.145843</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3008826712.801402</v>
+        <v>3365062201.168575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09395849319496059</v>
+        <v>0.08501894931502121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03868085182051105</v>
+        <v>0.04679163310929092</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>56</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1504413425.650692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2209288413.833461</v>
+        <v>2682604217.828825</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09300394455669234</v>
+        <v>0.1445994195808444</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03796534949504552</v>
+        <v>0.05515537803772429</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1104644213.812192</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2155225542.069674</v>
+        <v>2024971742.473268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06172607281603451</v>
+        <v>0.09550779054530292</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04261035862222611</v>
+        <v>0.04361403489029625</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>42</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1077612817.184662</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3202999825.119599</v>
+        <v>2515987892.02261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2052591769453538</v>
+        <v>0.1627775294071935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02982458614571999</v>
+        <v>0.02996272795550216</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1601499990.782637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2070429665.062897</v>
+        <v>1786810713.127095</v>
       </c>
       <c r="F9" t="n">
-        <v>0.189075938963163</v>
+        <v>0.123668829931147</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02895713701918196</v>
+        <v>0.032753513737284</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1035214849.326385</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5330731280.456267</v>
+        <v>4053058089.01248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2006642086340119</v>
+        <v>0.1729736602619469</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0485370504311769</v>
+        <v>0.05197806945850701</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>62</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2665365765.091078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3332064134.321188</v>
+        <v>2876320560.221011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.127593747108136</v>
+        <v>0.1852888216781223</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03372495564278642</v>
+        <v>0.040942770446702</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>61</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1666032033.2026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2990758294.528317</v>
+        <v>2083906075.390891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1243974638249873</v>
+        <v>0.1969120645898692</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04369149214099367</v>
+        <v>0.04133374851914718</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>50</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1495379164.395424</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5040419713.74277</v>
+        <v>4452867020.682704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08549233184059848</v>
+        <v>0.09372682857701645</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01924300784668151</v>
+        <v>0.0196877775661187</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>49</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2520209858.909448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2855966781.251451</v>
+        <v>3198032391.274246</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1570255241471784</v>
+        <v>0.1677665826767528</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0284272310769741</v>
+        <v>0.02924984537525474</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1427983435.437336</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1747858635.091879</v>
+        <v>1131148743.17769</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0745018787703973</v>
+        <v>0.08598850808122653</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03104509175624495</v>
+        <v>0.04066428464825116</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>873929459.1983072</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2513770163.969269</v>
+        <v>2325764960.093191</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09084194912322824</v>
+        <v>0.09254107953184196</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04269822146430968</v>
+        <v>0.04280633707947781</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1256885111.526761</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4120166506.350422</v>
+        <v>4509727074.302893</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1327185044021595</v>
+        <v>0.1184764006492048</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04130191941683418</v>
+        <v>0.04421178375348156</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>43</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2060083281.806624</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3729826963.365193</v>
+        <v>3405515682.983033</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1217608491682758</v>
+        <v>0.1548869924339176</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02802146903240074</v>
+        <v>0.03311841681745154</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>48</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1864913459.038033</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1301617489.758367</v>
+        <v>1027492148.099663</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1809358723369452</v>
+        <v>0.1581855518242842</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01881151893985717</v>
+        <v>0.02101203616472153</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>650808847.4752008</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2652817193.427194</v>
+        <v>1962355482.161836</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1437773804828639</v>
+        <v>0.1149673800986948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03100155729964203</v>
+        <v>0.02039881288215252</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1326408553.496401</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2047112354.575768</v>
+        <v>2703622604.949869</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07895015053320739</v>
+        <v>0.08003056495570017</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03295689951135351</v>
+        <v>0.03302715643011796</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1023556208.69076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3916625110.919672</v>
+        <v>3864814080.518188</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1340168373202953</v>
+        <v>0.1372705650990131</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05090133895291471</v>
+        <v>0.03927618242862941</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1958312562.057345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1384054241.368058</v>
+        <v>1117689066.260845</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1676243856695407</v>
+        <v>0.1780375376822519</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03862040388844907</v>
+        <v>0.03957686566825379</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>692027126.1239864</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3764917240.822949</v>
+        <v>3409931248.263075</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1121999795886538</v>
+        <v>0.1102758090878178</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02944361501191723</v>
+        <v>0.03202216385946869</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>43</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1882458604.164894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>914479730.9012839</v>
+        <v>1072390842.946553</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09564900817015771</v>
+        <v>0.1027959791950768</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02064592571401037</v>
+        <v>0.02286382992528579</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>457239949.0694779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1393882877.763073</v>
+        <v>1128051012.204633</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08368667925061031</v>
+        <v>0.1171643735488797</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02522938558700527</v>
+        <v>0.02671613471478102</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>696941507.3761857</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3054901519.361125</v>
+        <v>3276656527.324161</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1373061798389774</v>
+        <v>0.1079631183100498</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02506134240952011</v>
+        <v>0.02603414397193193</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1527450816.717313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3272412506.063977</v>
+        <v>3795507722.481523</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1439551621229797</v>
+        <v>0.0935607170369047</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04485752823377307</v>
+        <v>0.04936522915811647</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>47</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1636206287.851803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4685987578.691534</v>
+        <v>4203852658.379513</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0984908448438578</v>
+        <v>0.1211816755580034</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03926457484435333</v>
+        <v>0.03199910649514419</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>65</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2342993758.670404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1701305005.852406</v>
+        <v>1666311532.408971</v>
       </c>
       <c r="F30" t="n">
-        <v>0.133372524677699</v>
+        <v>0.1174781020341831</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03560381091315389</v>
+        <v>0.02645313509681074</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>850652506.3067249</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1020559088.287829</v>
+        <v>1453422800.048071</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08993620625859883</v>
+        <v>0.1073664385134366</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05232254276995756</v>
+        <v>0.03403291568906958</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>510279537.7994044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1629544963.11733</v>
+        <v>1401354914.274379</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07402913058845818</v>
+        <v>0.1203504506497406</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0269871416657099</v>
+        <v>0.02773744594738621</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>814772576.7002612</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2287470205.843965</v>
+        <v>2142452749.291528</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1881791933004086</v>
+        <v>0.1993158004777054</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0585508995810005</v>
+        <v>0.03998736881565118</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>44</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1143735159.191594</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1298342745.110767</v>
+        <v>1002861655.848727</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08795762742311539</v>
+        <v>0.08537550224724333</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0282657024759746</v>
+        <v>0.02098424784004451</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>649171361.4126285</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1054406566.20404</v>
+        <v>1217613143.719029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1013185669285907</v>
+        <v>0.07651852120276943</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0272167657068948</v>
+        <v>0.0283463141415504</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>527203289.708455</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2807123964.193101</v>
+        <v>2593651815.764567</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1752218603289768</v>
+        <v>0.1296433721621888</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01780258557918516</v>
+        <v>0.02093712456473016</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>36</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1403561979.43826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2001190991.299096</v>
+        <v>2428051812.144382</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1082614002387485</v>
+        <v>0.07875041806051908</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03733274325735669</v>
+        <v>0.03244742865728409</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>40</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1000595523.080621</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1368114285.561628</v>
+        <v>1854203653.861387</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09845607263357296</v>
+        <v>0.1009160456519021</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03535325458493907</v>
+        <v>0.02763768596918282</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>684057210.6267214</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2089048384.058343</v>
+        <v>1696725931.363193</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1401944641333911</v>
+        <v>0.125281724442409</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02588171249983503</v>
+        <v>0.02475302554029878</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1044524173.002975</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1239728456.4205</v>
+        <v>1453926493.14373</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1413759840220344</v>
+        <v>0.1486876367827665</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0509213691812891</v>
+        <v>0.05975172338587455</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>619864259.5189544</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2085893603.328218</v>
+        <v>2017764286.146187</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1647486854710848</v>
+        <v>0.1502761733745802</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03036564664894552</v>
+        <v>0.04100362035053812</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>36</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1042946867.476537</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2726511738.279488</v>
+        <v>3617202502.395161</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1031844048394334</v>
+        <v>0.0954330487218714</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03399347078290015</v>
+        <v>0.03139250186684407</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1363255810.712243</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3021154511.667427</v>
+        <v>2191815802.928757</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1730985721268345</v>
+        <v>0.1445908874970905</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01848713974800576</v>
+        <v>0.02315144186822602</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>48</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1510577252.062629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2349520871.596413</v>
+        <v>1639341760.139549</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06217217825810797</v>
+        <v>0.09706368305524128</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02891326579286695</v>
+        <v>0.02780494318183673</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1174760611.836838</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2227040252.558467</v>
+        <v>2522624315.706461</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1646272916389973</v>
+        <v>0.1356005773291075</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0500622958568538</v>
+        <v>0.03815223427969024</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1113520139.969796</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5650557740.047783</v>
+        <v>5490361399.095757</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1566518209211087</v>
+        <v>0.1184331636445413</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04636021682778135</v>
+        <v>0.04205269600482671</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>52</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2825278934.027388</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3671260275.574633</v>
+        <v>3470886396.467092</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1819981321088031</v>
+        <v>0.1787723841917845</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05320117428726429</v>
+        <v>0.04065294230859506</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>39</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1835630118.241468</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3627995730.497996</v>
+        <v>4136835241.017023</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1023179561366274</v>
+        <v>0.06864656828408351</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02870891670513506</v>
+        <v>0.0304348590606992</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1813997921.198714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1580311293.839073</v>
+        <v>1284218512.314752</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1677685846936886</v>
+        <v>0.1491906669861527</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03128261283259724</v>
+        <v>0.0356434153927336</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>790155666.4184924</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3579569516.837049</v>
+        <v>3324266250.593378</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1615418057426284</v>
+        <v>0.1272269983848019</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03473159503913167</v>
+        <v>0.04497191297313582</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>49</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1789784776.971261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1099972120.930123</v>
+        <v>1093665413.517576</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1707857524489212</v>
+        <v>0.1726531546351787</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0495646613565412</v>
+        <v>0.03951521115096374</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>549986128.1983</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3501661524.289334</v>
+        <v>4820925289.243714</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09121499996484285</v>
+        <v>0.09581251272939317</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05388103687040061</v>
+        <v>0.04809355565539845</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>60</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1750830847.91303</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3548866634.835179</v>
+        <v>3576410009.11423</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1349612591473771</v>
+        <v>0.2002544041008411</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0351056284946287</v>
+        <v>0.02216408343196361</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>41</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1774433311.882404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4060459081.10106</v>
+        <v>3176381667.874966</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1529552716282151</v>
+        <v>0.1449027208910483</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05076134517808986</v>
+        <v>0.03912201956077276</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2030229609.310586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3919012562.694702</v>
+        <v>4832863801.814321</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1637398464666906</v>
+        <v>0.2173092732288655</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02560616312926674</v>
+        <v>0.02101689308847979</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1959506252.631386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1183904332.302748</v>
+        <v>1692127222.124429</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1052535248327504</v>
+        <v>0.1621400589731018</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04888430243299347</v>
+        <v>0.04889947810183501</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>591952255.1697077</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4090636761.188181</v>
+        <v>2995961480.299072</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1834112809246621</v>
+        <v>0.1354068588840025</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02705474942624567</v>
+        <v>0.02159952060592616</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>47</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2045318476.534662</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1634143368.78506</v>
+        <v>1353277826.315241</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1370388583549211</v>
+        <v>0.194397843022955</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02930377655091097</v>
+        <v>0.02644517019609217</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>817071703.2484076</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5310519685.246374</v>
+        <v>5374256255.867456</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1075301932656837</v>
+        <v>0.1091000361943145</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03363513319632969</v>
+        <v>0.04655202128700181</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2655259755.335327</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3726979612.018864</v>
+        <v>3680236252.236743</v>
       </c>
       <c r="F60" t="n">
-        <v>0.129711248366508</v>
+        <v>0.1537777448110664</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02061444425029342</v>
+        <v>0.02705104428212277</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1863489952.569419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3121520218.835383</v>
+        <v>2510397499.751317</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1101249465468097</v>
+        <v>0.1799219975706537</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0293188374912558</v>
+        <v>0.02382654379829761</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>53</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1560760078.389247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1792999942.433281</v>
+        <v>1968722555.749411</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1770187236054168</v>
+        <v>0.186748135835603</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04184854044693726</v>
+        <v>0.03509703915294438</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>896499998.1545361</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4093713981.008666</v>
+        <v>4815152216.108368</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07329997756067537</v>
+        <v>0.07717258120982297</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04354606255379663</v>
+        <v>0.04166683068728106</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2046857048.661305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5391482227.221766</v>
+        <v>5457783298.897023</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1420297295111428</v>
+        <v>0.1435725711191281</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02162617920046242</v>
+        <v>0.03098089985284707</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>45</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2695741247.31029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4523783077.240191</v>
+        <v>3937231817.449817</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1156704119048728</v>
+        <v>0.1528391286490274</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02062981141590617</v>
+        <v>0.02163451868968112</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>52</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2261891525.913285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4500779467.943059</v>
+        <v>4827072027.428281</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1364330426283188</v>
+        <v>0.114143512756486</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04658305584499921</v>
+        <v>0.03360093622311038</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>43</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2250389734.329016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3129500617.521104</v>
+        <v>3227049612.883478</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07750239575449003</v>
+        <v>0.06352016768327869</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04685627833224941</v>
+        <v>0.04613855107731007</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>47</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1564750316.057975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5719277125.358039</v>
+        <v>5880115214.29019</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1466325081923232</v>
+        <v>0.152229809764085</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05097968841933203</v>
+        <v>0.04574253803186706</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>46</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2859638662.620913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1769874530.30722</v>
+        <v>1564434745.377392</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1387633420449963</v>
+        <v>0.1358177164483624</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03710703202912113</v>
+        <v>0.03958473955661806</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>884937240.3155116</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2770774759.777044</v>
+        <v>2673878028.144783</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08030487411816842</v>
+        <v>0.090772478208035</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03661324506955076</v>
+        <v>0.04006425260653421</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>42</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1385387341.988654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4537580662.780552</v>
+        <v>5153747266.794363</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1465412336323122</v>
+        <v>0.1391268066096156</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02999741634107738</v>
+        <v>0.02776165815186809</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>53</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2268790402.523086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1704248577.000895</v>
+        <v>1647287316.013557</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08304989713326288</v>
+        <v>0.1055335292478137</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05069419610029515</v>
+        <v>0.05102335766815039</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>852124282.5236572</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2293724403.699983</v>
+        <v>3366091667.248355</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1115764251970075</v>
+        <v>0.1007285466651734</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04122829403895432</v>
+        <v>0.0462821599053071</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>56</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1146862262.440152</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3187455816.804767</v>
+        <v>2810961773.054712</v>
       </c>
       <c r="F74" t="n">
-        <v>0.173385528484413</v>
+        <v>0.1148592615109096</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02956467103762442</v>
+        <v>0.02214114562081505</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>51</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1593727957.568222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2034406401.94662</v>
+        <v>1715118863.526936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.125563980563023</v>
+        <v>0.1254972957381651</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02380969562407486</v>
+        <v>0.03055293359766279</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1017203161.891284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4146566693.021873</v>
+        <v>3732709635.354414</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1024309943354589</v>
+        <v>0.1151573252003182</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03412522670305464</v>
+        <v>0.0226859165447629</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2073283337.301838</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1693297087.944672</v>
+        <v>2299834660.688011</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1329559299852789</v>
+        <v>0.1448701445314139</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02122173293099639</v>
+        <v>0.02774291005798828</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>846648560.1436363</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4533110528.112962</v>
+        <v>4782911693.504632</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1370092148590186</v>
+        <v>0.0979588134915826</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05397814212876016</v>
+        <v>0.05096798361563307</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>52</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2266555191.586405</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1369080829.309294</v>
+        <v>1259701803.977473</v>
       </c>
       <c r="F79" t="n">
-        <v>0.115930770971052</v>
+        <v>0.1510539723881351</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02524295404520634</v>
+        <v>0.03801353533812024</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>684540425.9365741</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4763729465.496654</v>
+        <v>4803637679.985713</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1073907464544677</v>
+        <v>0.09506244901616895</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02528903629286943</v>
+        <v>0.02808651977520951</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2381864770.156399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5051326657.668377</v>
+        <v>4778298786.104433</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1255425990610037</v>
+        <v>0.1001462193123786</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02768977915298321</v>
+        <v>0.02409972754219334</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2525663331.046444</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4753513663.866366</v>
+        <v>4048239107.375105</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1668066654225141</v>
+        <v>0.2151491281348791</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0295602626582432</v>
+        <v>0.02727614268586456</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2376756829.593912</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2437357890.087671</v>
+        <v>2365251750.054931</v>
       </c>
       <c r="F83" t="n">
-        <v>0.152164354062515</v>
+        <v>0.1389676710149014</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04089231929417599</v>
+        <v>0.0366691120039636</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1218678984.7928</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2239110643.156604</v>
+        <v>1901793204.930063</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09441719246367733</v>
+        <v>0.07781944102161119</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03940054464146064</v>
+        <v>0.04674738153677863</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1119555291.555577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2290755405.959717</v>
+        <v>3135325379.059487</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1614856753686323</v>
+        <v>0.1540193456159582</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04337869733206208</v>
+        <v>0.05028743231367674</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>55</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1145377684.796507</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2734213271.912139</v>
+        <v>2536732973.898515</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1485805389052719</v>
+        <v>0.1573651398470222</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02535659823863287</v>
+        <v>0.02492219811771795</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>15</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1367106765.652161</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1502140269.797798</v>
+        <v>1434198497.407118</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1161623238269261</v>
+        <v>0.1493508253775323</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03329498265600587</v>
+        <v>0.04329775162419394</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>751070267.8880186</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2963718646.132707</v>
+        <v>3542078215.534166</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1599859304797638</v>
+        <v>0.1080602041881986</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03873175001982262</v>
+        <v>0.0314116926242449</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>57</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1481859349.884171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2967721638.77179</v>
+        <v>2148824017.101602</v>
       </c>
       <c r="F89" t="n">
-        <v>0.120970735803795</v>
+        <v>0.1201071187840714</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02907170895909212</v>
+        <v>0.02523643186286391</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1483860859.817836</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2149429015.698513</v>
+        <v>1418589732.013701</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08452151922262405</v>
+        <v>0.1329763393924119</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04518120805751155</v>
+        <v>0.05380774070939653</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1074714605.376109</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1931585802.841919</v>
+        <v>1651962216.056955</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1906114724520696</v>
+        <v>0.1352652415419788</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0500478052651679</v>
+        <v>0.04742501661259037</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>965792882.7611756</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2150168386.610447</v>
+        <v>1922687453.160279</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08412603490580736</v>
+        <v>0.07726469950930467</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03868371861242708</v>
+        <v>0.03728430083061097</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>33</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1075084150.795523</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3130401919.759973</v>
+        <v>4272209261.526623</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1218079884477502</v>
+        <v>0.1266420888106067</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03577444021109048</v>
+        <v>0.04616697907264943</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1565201016.698699</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2490744201.534166</v>
+        <v>1985403954.638329</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1288027161290278</v>
+        <v>0.1633108401594451</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0330358300683221</v>
+        <v>0.03753410328776051</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1245372162.924865</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2591572946.460154</v>
+        <v>2569158753.488002</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130787948085346</v>
+        <v>0.1060580025607541</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04975654256676425</v>
+        <v>0.04351445187543206</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>35</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1295786502.644212</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2016333760.242269</v>
+        <v>1587124088.724324</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1370163188509353</v>
+        <v>0.1030402239742873</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04156674029763515</v>
+        <v>0.04128193977503439</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1008166865.303302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4807504405.02721</v>
+        <v>5099208109.602138</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1138328675411535</v>
+        <v>0.1526344437160861</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01882697209829504</v>
+        <v>0.02246501113419547</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2403752323.784753</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3132758335.153337</v>
+        <v>3017116501.682235</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1013875384267314</v>
+        <v>0.08128721347822652</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02477558662988708</v>
+        <v>0.0264661873777378</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>39</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1566379161.236583</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2138272434.144012</v>
+        <v>2809373802.957405</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1002889378498421</v>
+        <v>0.09544931936498513</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02936535005421739</v>
+        <v>0.0339259692693201</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>46</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1069136140.575143</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4335675825.072245</v>
+        <v>4037204968.382855</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1148116419212964</v>
+        <v>0.1492470077074625</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01821959490961237</v>
+        <v>0.02137466387733607</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>45</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2167838009.949695</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2591039890.759749</v>
+        <v>3374743994.560579</v>
       </c>
       <c r="F101" t="n">
-        <v>0.144618513219354</v>
+        <v>0.1894308529776621</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05840886399381828</v>
+        <v>0.0467058064536512</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>60</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1295519980.337418</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_146.xlsx
+++ b/output/fit_clients/fit_round_146.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1809022823.777883</v>
+        <v>2379213446.630169</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08923875840851872</v>
+        <v>0.1142787784700851</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03391790170548397</v>
+        <v>0.03820807555644742</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2261386147.657692</v>
+        <v>1935251433.377188</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1445727467672012</v>
+        <v>0.1237185137892541</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0359056835023867</v>
+        <v>0.04515717525946907</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4706957855.563256</v>
+        <v>3940322027.517292</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1393006643426038</v>
+        <v>0.1485170981986894</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03337972048927649</v>
+        <v>0.03152694978505494</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3365062201.168575</v>
+        <v>3678670734.669378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08501894931502121</v>
+        <v>0.09477229226792612</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04679163310929092</v>
+        <v>0.03870941979079531</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2682604217.828825</v>
+        <v>1923525507.203208</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1445994195808444</v>
+        <v>0.1267362806663413</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05515537803772429</v>
+        <v>0.03924362996556349</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2024971742.473268</v>
+        <v>1988361739.961834</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09550779054530292</v>
+        <v>0.07036744832519216</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04361403489029625</v>
+        <v>0.04882480068855731</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2515987892.02261</v>
+        <v>3589813343.710369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1627775294071935</v>
+        <v>0.1812154592414515</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02996272795550216</v>
+        <v>0.02314045446333282</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1786810713.127095</v>
+        <v>2286583434.619755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.123668829931147</v>
+        <v>0.1930427887265263</v>
       </c>
       <c r="G9" t="n">
-        <v>0.032753513737284</v>
+        <v>0.03593031801066521</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4053058089.01248</v>
+        <v>5874302362.374615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1729736602619469</v>
+        <v>0.2112004328177058</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05197806945850701</v>
+        <v>0.0535672016845113</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2876320560.221011</v>
+        <v>2993356401.37228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1852888216781223</v>
+        <v>0.116646264488876</v>
       </c>
       <c r="G11" t="n">
-        <v>0.040942770446702</v>
+        <v>0.0404522765141399</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2083906075.390891</v>
+        <v>2208822290.029909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1969120645898692</v>
+        <v>0.1971147531464574</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04133374851914718</v>
+        <v>0.03326876739772629</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4452867020.682704</v>
+        <v>3270312400.453946</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09372682857701645</v>
+        <v>0.07491840563161715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0196877775661187</v>
+        <v>0.02566809016721715</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3198032391.274246</v>
+        <v>3820816272.440617</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1677665826767528</v>
+        <v>0.1660048965338635</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02924984537525474</v>
+        <v>0.02990602631627194</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1131148743.17769</v>
+        <v>1322252018.929747</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08598850808122653</v>
+        <v>0.09598911750222612</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04066428464825116</v>
+        <v>0.0484523025726866</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2325764960.093191</v>
+        <v>2628189631.866277</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09254107953184196</v>
+        <v>0.07379549875445091</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04280633707947781</v>
+        <v>0.03402599568325205</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4509727074.302893</v>
+        <v>3866858927.976728</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1184764006492048</v>
+        <v>0.1193533188256885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04421178375348156</v>
+        <v>0.04492895739233765</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3405515682.983033</v>
+        <v>3081867343.352767</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1548869924339176</v>
+        <v>0.1843169806357254</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03311841681745154</v>
+        <v>0.02375944299374613</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1027492148.099663</v>
+        <v>971289487.3746659</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1581855518242842</v>
+        <v>0.1739838113886553</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02101203616472153</v>
+        <v>0.02123459498422373</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1962355482.161836</v>
+        <v>2730195307.5096</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1149673800986948</v>
+        <v>0.117247541536803</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02039881288215252</v>
+        <v>0.02366291238234496</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2703622604.949869</v>
+        <v>1818545915.315754</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08003056495570017</v>
+        <v>0.09228925782349243</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03302715643011796</v>
+        <v>0.04027095017500107</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3864814080.518188</v>
+        <v>3656615983.778569</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1372705650990131</v>
+        <v>0.09783640330349705</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03927618242862941</v>
+        <v>0.04066424486234413</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1117689066.260845</v>
+        <v>1415018216.496628</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1780375376822519</v>
+        <v>0.1758984792231994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03957686566825379</v>
+        <v>0.05450264781264475</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3409931248.263075</v>
+        <v>3797109680.212471</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1102758090878178</v>
+        <v>0.1135192656665729</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03202216385946869</v>
+        <v>0.03175426271717281</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1072390842.946553</v>
+        <v>1303468503.099101</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1027959791950768</v>
+        <v>0.1040076460501425</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02286382992528579</v>
+        <v>0.02817785099748282</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1128051012.204633</v>
+        <v>952694726.5162202</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1171643735488797</v>
+        <v>0.1136077062673891</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02671613471478102</v>
+        <v>0.03239270915472665</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3276656527.324161</v>
+        <v>4097911401.072197</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1079631183100498</v>
+        <v>0.125423361120455</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02603414397193193</v>
+        <v>0.02094605795403364</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3795507722.481523</v>
+        <v>2375129359.656359</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0935607170369047</v>
+        <v>0.1205748082167316</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04936522915811647</v>
+        <v>0.03054016260893087</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4203852658.379513</v>
+        <v>5027433749.437572</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1211816755580034</v>
+        <v>0.1102096403110005</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03199910649514419</v>
+        <v>0.03939339122956292</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1666311532.408971</v>
+        <v>1585624641.952578</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1174781020341831</v>
+        <v>0.09527491337538778</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02645313509681074</v>
+        <v>0.03873048176200355</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1453422800.048071</v>
+        <v>1010651578.810839</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1073664385134366</v>
+        <v>0.08969957663609515</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03403291568906958</v>
+        <v>0.03482275732911653</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1401354914.274379</v>
+        <v>1861884903.434671</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1203504506497406</v>
+        <v>0.09590355364186176</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02773744594738621</v>
+        <v>0.02363442105884924</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2142452749.291528</v>
+        <v>2889552654.089262</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1993158004777054</v>
+        <v>0.1485439276964564</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03998736881565118</v>
+        <v>0.04255913475820611</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1002861655.848727</v>
+        <v>1561523313.046181</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08537550224724333</v>
+        <v>0.1112406847260828</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02098424784004451</v>
+        <v>0.02502872571980849</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1217613143.719029</v>
+        <v>1015011196.174012</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07651852120276943</v>
+        <v>0.113065394424225</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0283463141415504</v>
+        <v>0.02848439076628895</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2593651815.764567</v>
+        <v>2662023973.475692</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1296433721621888</v>
+        <v>0.1101034347584947</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02093712456473016</v>
+        <v>0.02599326870892897</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2428051812.144382</v>
+        <v>1910529550.606672</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07875041806051908</v>
+        <v>0.07952671218599061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03244742865728409</v>
+        <v>0.03221892820410469</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1854203653.861387</v>
+        <v>1658971137.72665</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1009160456519021</v>
+        <v>0.09653361058208317</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02763768596918282</v>
+        <v>0.02812377803219312</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1696725931.363193</v>
+        <v>1616242750.15211</v>
       </c>
       <c r="F39" t="n">
-        <v>0.125281724442409</v>
+        <v>0.1603573034907924</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02475302554029878</v>
+        <v>0.02705525179344996</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1453926493.14373</v>
+        <v>1481716328.981367</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1486876367827665</v>
+        <v>0.1416204058260254</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05975172338587455</v>
+        <v>0.0595425417104395</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2017764286.146187</v>
+        <v>2133588441.914931</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1502761733745802</v>
+        <v>0.1163567464601145</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04100362035053812</v>
+        <v>0.03655797126688338</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3617202502.395161</v>
+        <v>3039403457.069185</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0954330487218714</v>
+        <v>0.1067846085805738</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03139250186684407</v>
+        <v>0.0310784150860894</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2191815802.928757</v>
+        <v>3067632301.999144</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1445908874970905</v>
+        <v>0.1422743382485027</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02315144186822602</v>
+        <v>0.01903856132331773</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1639341760.139549</v>
+        <v>1615693597.173106</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09706368305524128</v>
+        <v>0.07377921667036724</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02780494318183673</v>
+        <v>0.02989681216494987</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2522624315.706461</v>
+        <v>2223209367.1678</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1356005773291075</v>
+        <v>0.1520339528002918</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03815223427969024</v>
+        <v>0.05573608416161704</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5490361399.095757</v>
+        <v>4398222487.020771</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1184331636445413</v>
+        <v>0.1098966260426407</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04205269600482671</v>
+        <v>0.05367794841933136</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3470886396.467092</v>
+        <v>3126209485.544749</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1787723841917845</v>
+        <v>0.1300723846562845</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04065294230859506</v>
+        <v>0.03596688052074109</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4136835241.017023</v>
+        <v>4546674876.372087</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06864656828408351</v>
+        <v>0.08262782327472613</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0304348590606992</v>
+        <v>0.03579999253291251</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1284218512.314752</v>
+        <v>1290656283.720352</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1491906669861527</v>
+        <v>0.1855559925101458</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0356434153927336</v>
+        <v>0.02799599747843993</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3324266250.593378</v>
+        <v>2877516753.550174</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1272269983848019</v>
+        <v>0.1494695844610826</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04497191297313582</v>
+        <v>0.04408230708512145</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1093665413.517576</v>
+        <v>1327208834.530378</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1726531546351787</v>
+        <v>0.1193877486858192</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03951521115096374</v>
+        <v>0.05078109518654685</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4820925289.243714</v>
+        <v>5180316166.984501</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09581251272939317</v>
+        <v>0.1060992026589021</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04809355565539845</v>
+        <v>0.05690882104190053</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3576410009.11423</v>
+        <v>3596565704.775808</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2002544041008411</v>
+        <v>0.1599517295620345</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02216408343196361</v>
+        <v>0.03189971688585671</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3176381667.874966</v>
+        <v>3173442330.080069</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1449027208910483</v>
+        <v>0.1516712347759426</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03912201956077276</v>
+        <v>0.03431251343285698</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4832863801.814321</v>
+        <v>3662956994.29696</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2173092732288655</v>
+        <v>0.1448086092530943</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02101689308847979</v>
+        <v>0.02048192449724695</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1692127222.124429</v>
+        <v>1190787165.567944</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1621400589731018</v>
+        <v>0.119566318452482</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04889947810183501</v>
+        <v>0.04168282893878831</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2995961480.299072</v>
+        <v>2829303884.922592</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1354068588840025</v>
+        <v>0.1797058727281828</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02159952060592616</v>
+        <v>0.02243049811312942</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1353277826.315241</v>
+        <v>1695161012.898074</v>
       </c>
       <c r="F58" t="n">
-        <v>0.194397843022955</v>
+        <v>0.1310216178452666</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02644517019609217</v>
+        <v>0.03460466030911322</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5374256255.867456</v>
+        <v>3346234211.840054</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1091000361943145</v>
+        <v>0.1103970692872678</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04655202128700181</v>
+        <v>0.04238086441379326</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3680236252.236743</v>
+        <v>3774461830.751877</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1537777448110664</v>
+        <v>0.1684327024843756</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02705104428212277</v>
+        <v>0.03156714932527937</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2510397499.751317</v>
+        <v>3402417067.985169</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1799219975706537</v>
+        <v>0.1708718827262768</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02382654379829761</v>
+        <v>0.02025116904184013</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1968722555.749411</v>
+        <v>1388484752.220611</v>
       </c>
       <c r="F62" t="n">
-        <v>0.186748135835603</v>
+        <v>0.1889879328183889</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03509703915294438</v>
+        <v>0.04076011995027477</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4815152216.108368</v>
+        <v>4942892322.818192</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07717258120982297</v>
+        <v>0.09203089228903333</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04166683068728106</v>
+        <v>0.0302892072932867</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5457783298.897023</v>
+        <v>4015283356.40928</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1435725711191281</v>
+        <v>0.1276306896785294</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03098089985284707</v>
+        <v>0.03552862644048616</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3937231817.449817</v>
+        <v>4182083365.508321</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1528391286490274</v>
+        <v>0.1200066616272821</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02163451868968112</v>
+        <v>0.0251746266186405</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4827072027.428281</v>
+        <v>4633948313.047215</v>
       </c>
       <c r="F66" t="n">
-        <v>0.114143512756486</v>
+        <v>0.1028193274584444</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03360093622311038</v>
+        <v>0.04166222358801679</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3227049612.883478</v>
+        <v>2954616776.98409</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06352016768327869</v>
+        <v>0.08251803457908186</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04613855107731007</v>
+        <v>0.03174772807852039</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5880115214.29019</v>
+        <v>5498192599.631721</v>
       </c>
       <c r="F68" t="n">
-        <v>0.152229809764085</v>
+        <v>0.1080254957496166</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04574253803186706</v>
+        <v>0.04821226700143806</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1564434745.377392</v>
+        <v>2358520453.382065</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1358177164483624</v>
+        <v>0.1536848096378313</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03958473955661806</v>
+        <v>0.05085224390773974</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2673878028.144783</v>
+        <v>2868020288.383407</v>
       </c>
       <c r="F70" t="n">
-        <v>0.090772478208035</v>
+        <v>0.1021732192177107</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04006425260653421</v>
+        <v>0.04103989192723324</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5153747266.794363</v>
+        <v>3856985220.678729</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1391268066096156</v>
+        <v>0.1251953903636151</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02776165815186809</v>
+        <v>0.03368509089622683</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1647287316.013557</v>
+        <v>1718580623.482962</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1055335292478137</v>
+        <v>0.1056450054054531</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05102335766815039</v>
+        <v>0.0523666875858007</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3366091667.248355</v>
+        <v>2542654340.300521</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1007285466651734</v>
+        <v>0.09907910366665164</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0462821599053071</v>
+        <v>0.03335519116077262</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2810961773.054712</v>
+        <v>2931867859.979228</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1148592615109096</v>
+        <v>0.1462259709010466</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02214114562081505</v>
+        <v>0.02284009076954566</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1715118863.526936</v>
+        <v>2458737505.070266</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1254972957381651</v>
+        <v>0.1185540676018633</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03055293359766279</v>
+        <v>0.0291580203039127</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3732709635.354414</v>
+        <v>5129074971.45696</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1151573252003182</v>
+        <v>0.07555386093363224</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0226859165447629</v>
+        <v>0.02437824529552245</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2299834660.688011</v>
+        <v>2165329363.865533</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1448701445314139</v>
+        <v>0.1286104761428674</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02774291005798828</v>
+        <v>0.02025923225319915</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4782911693.504632</v>
+        <v>4461567391.494725</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0979588134915826</v>
+        <v>0.1180916216962302</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05096798361563307</v>
+        <v>0.05355900762591881</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1259701803.977473</v>
+        <v>1362638790.734457</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1510539723881351</v>
+        <v>0.1715359104775185</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03801353533812024</v>
+        <v>0.02637729395247842</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4803637679.985713</v>
+        <v>5093804568.579299</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09506244901616895</v>
+        <v>0.08864546297816787</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02808651977520951</v>
+        <v>0.02801029192964601</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4778298786.104433</v>
+        <v>4349018442.223811</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1001462193123786</v>
+        <v>0.09938522045830274</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02409972754219334</v>
+        <v>0.02474708317391962</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4048239107.375105</v>
+        <v>4279096847.060565</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2151491281348791</v>
+        <v>0.1443255011231404</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02727614268586456</v>
+        <v>0.01850341900480293</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2365251750.054931</v>
+        <v>1675144293.067254</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1389676710149014</v>
+        <v>0.1493069900353489</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0366691120039636</v>
+        <v>0.04357213889802657</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1901793204.930063</v>
+        <v>1876366532.387951</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07781944102161119</v>
+        <v>0.1188856606066174</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04674738153677863</v>
+        <v>0.03418781559073109</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3135325379.059487</v>
+        <v>3077969641.965689</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1540193456159582</v>
+        <v>0.1612075037598416</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05028743231367674</v>
+        <v>0.05000378651903033</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2536732973.898515</v>
+        <v>2547856733.591003</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1573651398470222</v>
+        <v>0.1454668810737629</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02492219811771795</v>
+        <v>0.02759636533553325</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1434198497.407118</v>
+        <v>924415326.7015338</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1493508253775323</v>
+        <v>0.1151317477977933</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04329775162419394</v>
+        <v>0.02953006471176894</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3542078215.534166</v>
+        <v>3733238430.954699</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1080602041881986</v>
+        <v>0.1190932179218419</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0314116926242449</v>
+        <v>0.03055038291679871</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2148824017.101602</v>
+        <v>2385142647.26269</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1201071187840714</v>
+        <v>0.1062774197469228</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02523643186286391</v>
+        <v>0.02556708960124714</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1418589732.013701</v>
+        <v>1377356973.015688</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1329763393924119</v>
+        <v>0.1076675441844752</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05380774070939653</v>
+        <v>0.03723022317726208</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1651962216.056955</v>
+        <v>1940871797.625376</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1352652415419788</v>
+        <v>0.18535947813446</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04742501661259037</v>
+        <v>0.05575825494276079</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1922687453.160279</v>
+        <v>2040766016.076471</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07726469950930467</v>
+        <v>0.09263164309205568</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03728430083061097</v>
+        <v>0.04126317170848783</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4272209261.526623</v>
+        <v>4174529200.75802</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1266420888106067</v>
+        <v>0.1399867060036792</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04616697907264943</v>
+        <v>0.03704509418403981</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1985403954.638329</v>
+        <v>2147960593.369653</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1633108401594451</v>
+        <v>0.1332756022147429</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03753410328776051</v>
+        <v>0.03032921421498493</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2569158753.488002</v>
+        <v>3013122374.13381</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1060580025607541</v>
+        <v>0.1037360421279251</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04351445187543206</v>
+        <v>0.03249837136415729</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1587124088.724324</v>
+        <v>1517254057.849676</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1030402239742873</v>
+        <v>0.1096945619840973</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04128193977503439</v>
+        <v>0.03590742412778813</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5099208109.602138</v>
+        <v>4264901321.807356</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1526344437160861</v>
+        <v>0.1734659671357812</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02246501113419547</v>
+        <v>0.01888174038162514</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3017116501.682235</v>
+        <v>3047729560.849458</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08128721347822652</v>
+        <v>0.08506520143624012</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0264661873777378</v>
+        <v>0.02327277830800016</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2809373802.957405</v>
+        <v>3208440795.642031</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09544931936498513</v>
+        <v>0.09475920222543296</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0339259692693201</v>
+        <v>0.02252668452634744</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4037204968.382855</v>
+        <v>3710623892.903188</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1492470077074625</v>
+        <v>0.1220856754977569</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02137466387733607</v>
+        <v>0.02057977188873259</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3374743994.560579</v>
+        <v>2626257325.529871</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1894308529776621</v>
+        <v>0.1384730559914923</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0467058064536512</v>
+        <v>0.03926596966659796</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_146.xlsx
+++ b/output/fit_clients/fit_round_146.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2379213446.630169</v>
+        <v>1591466932.09302</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1142787784700851</v>
+        <v>0.1097034111843966</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03820807555644742</v>
+        <v>0.04075400515252892</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1935251433.377188</v>
+        <v>1809079162.99383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1237185137892541</v>
+        <v>0.1408392419988357</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04515717525946907</v>
+        <v>0.04780253284943155</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3940322027.517292</v>
+        <v>4746685300.992382</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1485170981986894</v>
+        <v>0.1055493747694411</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03152694978505494</v>
+        <v>0.02764376948917791</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>83</v>
+      </c>
+      <c r="J4" t="n">
+        <v>146</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3678670734.669378</v>
+        <v>2863921618.561977</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09477229226792612</v>
+        <v>0.06859890689072021</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03870941979079531</v>
+        <v>0.03457315152762844</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" t="n">
+        <v>141</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1923525507.203208</v>
+        <v>2346210628.144237</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1267362806663413</v>
+        <v>0.138506049183589</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03924362996556349</v>
+        <v>0.0410126954990115</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1988361739.961834</v>
+        <v>2911817777.477473</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07036744832519216</v>
+        <v>0.08948312223690534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04882480068855731</v>
+        <v>0.03129792474378909</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3589813343.710369</v>
+        <v>2745681681.038903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1812154592414515</v>
+        <v>0.2064445390118645</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02314045446333282</v>
+        <v>0.02876591642070771</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2286583434.619755</v>
+        <v>1457568324.958601</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1930427887265263</v>
+        <v>0.1295664466615285</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03593031801066521</v>
+        <v>0.02845666231786256</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5874302362.374615</v>
+        <v>5518207142.440485</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2112004328177058</v>
+        <v>0.1847127938505519</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0535672016845113</v>
+        <v>0.03824684951666113</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>134</v>
+      </c>
+      <c r="J10" t="n">
+        <v>146</v>
+      </c>
+      <c r="K10" t="n">
+        <v>153.4710515008022</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2993356401.37228</v>
+        <v>3057428035.295236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.116646264488876</v>
+        <v>0.1506117027003032</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0404522765141399</v>
+        <v>0.0408569650477086</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>142</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2208822290.029909</v>
+        <v>3010524018.420106</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1971147531464574</v>
+        <v>0.1847605925173591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03326876739772629</v>
+        <v>0.03364564923510364</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3270312400.453946</v>
+        <v>4289658485.126593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07491840563161715</v>
+        <v>0.0981420235132885</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02566809016721715</v>
+        <v>0.02513581910968502</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>71</v>
+      </c>
+      <c r="J13" t="n">
+        <v>145</v>
+      </c>
+      <c r="K13" t="n">
+        <v>138.6681335470743</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3820816272.440617</v>
+        <v>2687105559.400207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1660048965338635</v>
+        <v>0.1577407458062165</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02990602631627194</v>
+        <v>0.02839616004343713</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>139</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1322252018.929747</v>
+        <v>1632544052.52883</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09598911750222612</v>
+        <v>0.07169846778941483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0484523025726866</v>
+        <v>0.03639437180512842</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2628189631.866277</v>
+        <v>1812130536.55503</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07379549875445091</v>
+        <v>0.1035213815238186</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03402599568325205</v>
+        <v>0.03551418410366427</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3866858927.976728</v>
+        <v>5025751150.244743</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1193533188256885</v>
+        <v>0.1192134968002083</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04492895739233765</v>
+        <v>0.05283682770173849</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>70</v>
+      </c>
+      <c r="J17" t="n">
+        <v>146</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3081867343.352767</v>
+        <v>2722184120.477638</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1843169806357254</v>
+        <v>0.1426867113438957</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02375944299374613</v>
+        <v>0.02575062162663217</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>971289487.3746659</v>
+        <v>829271405.8071263</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1739838113886553</v>
+        <v>0.1219000355728664</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02123459498422373</v>
+        <v>0.01671485884634363</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2730195307.5096</v>
+        <v>1814124960.412003</v>
       </c>
       <c r="F20" t="n">
-        <v>0.117247541536803</v>
+        <v>0.1194400376387936</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02366291238234496</v>
+        <v>0.02127298586450452</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1818545915.315754</v>
+        <v>2270741215.5312</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09228925782349243</v>
+        <v>0.0701406576567002</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04027095017500107</v>
+        <v>0.03482187798483428</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3656615983.778569</v>
+        <v>3248996335.73162</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09783640330349705</v>
+        <v>0.08931609100121927</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04066424486234413</v>
+        <v>0.04887894953753236</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>37</v>
+      </c>
+      <c r="J22" t="n">
+        <v>146</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1240,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1415018216.496628</v>
+        <v>1105975107.556229</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1758984792231994</v>
+        <v>0.1492539590769598</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05450264781264475</v>
+        <v>0.03457668526053666</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3797109680.212471</v>
+        <v>3612520471.192358</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1135192656665729</v>
+        <v>0.09192468599923419</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03175426271717281</v>
+        <v>0.0238622774093048</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>146</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1303468503.099101</v>
+        <v>1257932269.77275</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1040076460501425</v>
+        <v>0.1024353157208924</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02817785099748282</v>
+        <v>0.02414684471556757</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>952694726.5162202</v>
+        <v>889381782.5384555</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1136077062673891</v>
+        <v>0.1110542421947698</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03239270915472665</v>
+        <v>0.03673618209501305</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4097911401.072197</v>
+        <v>4109600038.62245</v>
       </c>
       <c r="F27" t="n">
-        <v>0.125423361120455</v>
+        <v>0.1142265098327443</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02094605795403364</v>
+        <v>0.02128287956160074</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>57</v>
+      </c>
+      <c r="J27" t="n">
+        <v>146</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2375129359.656359</v>
+        <v>2799931581.941206</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1205748082167316</v>
+        <v>0.1059077565173551</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03054016260893087</v>
+        <v>0.04601281709203802</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5027433749.437572</v>
+        <v>4338081026.871773</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1102096403110005</v>
+        <v>0.1460433280852161</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03939339122956292</v>
+        <v>0.03696282764470962</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>135</v>
+      </c>
+      <c r="J29" t="n">
+        <v>146</v>
+      </c>
+      <c r="K29" t="n">
+        <v>164.3461629154725</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1487,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1585624641.952578</v>
+        <v>2290074553.244822</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09527491337538778</v>
+        <v>0.1388081086602702</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03873048176200355</v>
+        <v>0.03342244174985711</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1010651578.810839</v>
+        <v>990853006.1664948</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08969957663609515</v>
+        <v>0.07589272881581514</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03482275732911653</v>
+        <v>0.04559423744969977</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1557,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1861884903.434671</v>
+        <v>1191464002.846996</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09590355364186176</v>
+        <v>0.1190743043432372</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02363442105884924</v>
+        <v>0.03426024906341765</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2889552654.089262</v>
+        <v>3048236004.596638</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1485439276964564</v>
+        <v>0.1782048071570389</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04255913475820611</v>
+        <v>0.04014545564562747</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1561523313.046181</v>
+        <v>1537679083.458735</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1112406847260828</v>
+        <v>0.1183573040210219</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02502872571980849</v>
+        <v>0.01975573546345504</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1662,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1015011196.174012</v>
+        <v>1050821285.114146</v>
       </c>
       <c r="F35" t="n">
-        <v>0.113065394424225</v>
+        <v>0.07185699689778846</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02848439076628895</v>
+        <v>0.03774273934521231</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1697,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2662023973.475692</v>
+        <v>3080382712.713639</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1101034347584947</v>
+        <v>0.111320692227505</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02599326870892897</v>
+        <v>0.02302022276433163</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1910529550.606672</v>
+        <v>2869276767.336835</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07952671218599061</v>
+        <v>0.08686055665294892</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03221892820410469</v>
+        <v>0.02643226873779899</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1658971137.72665</v>
+        <v>1569899840.309328</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09653361058208317</v>
+        <v>0.08869045146487846</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02812377803219312</v>
+        <v>0.0257088939858873</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1616242750.15211</v>
+        <v>2146178369.54063</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1603573034907924</v>
+        <v>0.1808483418265877</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02705525179344996</v>
+        <v>0.02048615843527362</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1481716328.981367</v>
+        <v>1117457493.662734</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1416204058260254</v>
+        <v>0.1522807251132383</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0595425417104395</v>
+        <v>0.05389091597413436</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2133588441.914931</v>
+        <v>2247965808.124469</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1163567464601145</v>
+        <v>0.1150903862564621</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03655797126688338</v>
+        <v>0.04541441902950256</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3039403457.069185</v>
+        <v>3751246450.744756</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1067846085805738</v>
+        <v>0.08672879507397788</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0310784150860894</v>
+        <v>0.03710223596135673</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>54</v>
+      </c>
+      <c r="J42" t="n">
+        <v>145</v>
+      </c>
+      <c r="K42" t="n">
+        <v>115.8286925436747</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3067632301.999144</v>
+        <v>2319632833.869813</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1422743382485027</v>
+        <v>0.1272358874147893</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01903856132331773</v>
+        <v>0.01652286526381172</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1615693597.173106</v>
+        <v>2110379023.534368</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07377921667036724</v>
+        <v>0.08906821932639301</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02989681216494987</v>
+        <v>0.02787762251903074</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2223209367.1678</v>
+        <v>1534573480.007349</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1520339528002918</v>
+        <v>0.1256674056195752</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05573608416161704</v>
+        <v>0.04453650424828</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4398222487.020771</v>
+        <v>3805462800.652113</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1098966260426407</v>
+        <v>0.1530018160434133</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05367794841933136</v>
+        <v>0.05303653481045455</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>82</v>
+      </c>
+      <c r="J46" t="n">
+        <v>146</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2084,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3126209485.544749</v>
+        <v>4100459725.564404</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1300723846562845</v>
+        <v>0.1636211137320294</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03596688052074109</v>
+        <v>0.05180797872566034</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>65</v>
+      </c>
+      <c r="J47" t="n">
+        <v>145</v>
+      </c>
+      <c r="K47" t="n">
+        <v>112.2206576416034</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4546674876.372087</v>
+        <v>3271479404.094728</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08262782327472613</v>
+        <v>0.09946538669880338</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03579999253291251</v>
+        <v>0.02386597333259938</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>61</v>
+      </c>
+      <c r="J48" t="n">
+        <v>146</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1290656283.720352</v>
+        <v>1686236447.441887</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1855559925101458</v>
+        <v>0.1804057094687843</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02799599747843993</v>
+        <v>0.02917419864019764</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2191,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2877516753.550174</v>
+        <v>3130216964.099643</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1494695844610826</v>
+        <v>0.1160215849059929</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04408230708512145</v>
+        <v>0.04865227626017803</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>48</v>
+      </c>
+      <c r="J50" t="n">
+        <v>139</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1327208834.530378</v>
+        <v>1406305141.540007</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1193877486858192</v>
+        <v>0.1559231264015697</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05078109518654685</v>
+        <v>0.03801187345430997</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2255,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5180316166.984501</v>
+        <v>5233411661.713186</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1060992026589021</v>
+        <v>0.1132558224799369</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05690882104190053</v>
+        <v>0.04271452155383185</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>109</v>
+      </c>
+      <c r="J52" t="n">
+        <v>145</v>
+      </c>
+      <c r="K52" t="n">
+        <v>141.1390591803932</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2298,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3596565704.775808</v>
+        <v>2359342280.960048</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1599517295620345</v>
+        <v>0.1721552750354386</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03189971688585671</v>
+        <v>0.02223060072656782</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>144</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2327,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3173442330.080069</v>
+        <v>4160985946.223676</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1516712347759426</v>
+        <v>0.1217410130397055</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03431251343285698</v>
+        <v>0.0466883093269715</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>68</v>
+      </c>
+      <c r="J54" t="n">
+        <v>146</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2362,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3662956994.29696</v>
+        <v>3002274592.1899</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1448086092530943</v>
+        <v>0.1979767401856551</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02048192449724695</v>
+        <v>0.02462185836288429</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>67</v>
+      </c>
+      <c r="J55" t="n">
+        <v>144</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2397,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1190787165.567944</v>
+        <v>1309817779.064697</v>
       </c>
       <c r="F56" t="n">
-        <v>0.119566318452482</v>
+        <v>0.119794562569385</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04168282893878831</v>
+        <v>0.03991663468891175</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2438,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2829303884.922592</v>
+        <v>3838487081.427296</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1797058727281828</v>
+        <v>0.1689966087165487</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02243049811312942</v>
+        <v>0.02176529981377548</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>59</v>
+      </c>
+      <c r="J57" t="n">
+        <v>145</v>
+      </c>
+      <c r="K57" t="n">
+        <v>115.568433818061</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2475,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1695161012.898074</v>
+        <v>1231536035.239242</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1310216178452666</v>
+        <v>0.148652734016493</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03460466030911322</v>
+        <v>0.03365577937059955</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2504,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3346234211.840054</v>
+        <v>4170722364.741569</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1103970692872678</v>
+        <v>0.1270620105331227</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04238086441379326</v>
+        <v>0.03170499046754164</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>71</v>
+      </c>
+      <c r="J59" t="n">
+        <v>145</v>
+      </c>
+      <c r="K59" t="n">
+        <v>130.305475075866</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3774461830.751877</v>
+        <v>2516933383.757808</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1684327024843756</v>
+        <v>0.1595802958581489</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03156714932527937</v>
+        <v>0.02382753452847982</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3402417067.985169</v>
+        <v>3404186461.039545</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1708718827262768</v>
+        <v>0.1727938459602049</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02025116904184013</v>
+        <v>0.02130707635201793</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1388484752.220611</v>
+        <v>1603237859.299502</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1889879328183889</v>
+        <v>0.1286700673898196</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04076011995027477</v>
+        <v>0.04229431205028952</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2646,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4942892322.818192</v>
+        <v>3523958625.270381</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09203089228903333</v>
+        <v>0.07326933692734218</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0302892072932867</v>
+        <v>0.04691813178653433</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>71</v>
+      </c>
+      <c r="J63" t="n">
+        <v>146</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2687,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4015283356.40928</v>
+        <v>3865437015.940189</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1276306896785294</v>
+        <v>0.1555767863067753</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03552862644048616</v>
+        <v>0.0325749434280202</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>72</v>
+      </c>
+      <c r="J64" t="n">
+        <v>146</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2716,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4182083365.508321</v>
+        <v>3838875972.156528</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1200066616272821</v>
+        <v>0.1237799327330292</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0251746266186405</v>
+        <v>0.02274688358520555</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>122</v>
+      </c>
+      <c r="J65" t="n">
+        <v>145</v>
+      </c>
+      <c r="K65" t="n">
+        <v>121.489665970241</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2753,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4633948313.047215</v>
+        <v>3453093146.546134</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1028193274584444</v>
+        <v>0.1551954929842353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04166222358801679</v>
+        <v>0.04856380996444053</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>72</v>
+      </c>
+      <c r="J66" t="n">
+        <v>145</v>
+      </c>
+      <c r="K66" t="n">
+        <v>88.83774619298561</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2954616776.98409</v>
+        <v>2499890950.453821</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08251803457908186</v>
+        <v>0.06710979731950034</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03174772807852039</v>
+        <v>0.0503913416937532</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2825,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5498192599.631721</v>
+        <v>4051785613.534942</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1080254957496166</v>
+        <v>0.1583244009400581</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04821226700143806</v>
+        <v>0.04280283516545159</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>73</v>
+      </c>
+      <c r="J68" t="n">
+        <v>146</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2860,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2358520453.382065</v>
+        <v>1695870596.146494</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1536848096378313</v>
+        <v>0.1439605272840101</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05085224390773974</v>
+        <v>0.03821015117151495</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2895,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2868020288.383407</v>
+        <v>3350081441.632982</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1021732192177107</v>
+        <v>0.07076805466854413</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04103989192723324</v>
+        <v>0.0332178495935592</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19</v>
+      </c>
+      <c r="J70" t="n">
+        <v>146</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2930,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3856985220.678729</v>
+        <v>4927642416.411876</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1251953903636151</v>
+        <v>0.1227889337311649</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03368509089622683</v>
+        <v>0.02107519211287762</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>116</v>
+      </c>
+      <c r="J71" t="n">
+        <v>146</v>
+      </c>
+      <c r="K71" t="n">
+        <v>142.1449070140667</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2967,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1718580623.482962</v>
+        <v>1817142033.429729</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1056450054054531</v>
+        <v>0.09386692714644894</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0523666875858007</v>
+        <v>0.04643255523367298</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3008,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2542654340.300521</v>
+        <v>3129985167.862304</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09907910366665164</v>
+        <v>0.08094318955190319</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03335519116077262</v>
+        <v>0.04164252984137799</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3043,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2931867859.979228</v>
+        <v>2766086466.732573</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1462259709010466</v>
+        <v>0.111468079017097</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02284009076954566</v>
+        <v>0.0245774808992434</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3072,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2458737505.070266</v>
+        <v>2243395272.835664</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1185540676018633</v>
+        <v>0.1032248367809546</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0291580203039127</v>
+        <v>0.03621105256796524</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3107,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5129074971.45696</v>
+        <v>3743782134.525002</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07555386093363224</v>
+        <v>0.1062281424928107</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02437824529552245</v>
+        <v>0.02344344953261909</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>67</v>
+      </c>
+      <c r="J76" t="n">
+        <v>145</v>
+      </c>
+      <c r="K76" t="n">
+        <v>93.03712889308203</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3144,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2165329363.865533</v>
+        <v>2265757733.109432</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1286104761428674</v>
+        <v>0.1245063228987849</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02025923225319915</v>
+        <v>0.02943297838263931</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3185,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4461567391.494725</v>
+        <v>4130748862.855567</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1180916216962302</v>
+        <v>0.1024701521047353</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05355900762591881</v>
+        <v>0.03921633888074695</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>72</v>
+      </c>
+      <c r="J78" t="n">
+        <v>146</v>
+      </c>
+      <c r="K78" t="n">
+        <v>142.2077094782918</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1362638790.734457</v>
+        <v>1735353979.995315</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1715359104775185</v>
+        <v>0.1712243906800275</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02637729395247842</v>
+        <v>0.03451064876700492</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3257,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5093804568.579299</v>
+        <v>4399797342.98614</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08864546297816787</v>
+        <v>0.09875813568678053</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02801029192964601</v>
+        <v>0.03784109570394955</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>71</v>
+      </c>
+      <c r="J80" t="n">
+        <v>145</v>
+      </c>
+      <c r="K80" t="n">
+        <v>104.5215830196526</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4349018442.223811</v>
+        <v>5065003511.416401</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09938522045830274</v>
+        <v>0.09332459532294687</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02474708317391962</v>
+        <v>0.02916703635165095</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>67</v>
+      </c>
+      <c r="J81" t="n">
+        <v>145</v>
+      </c>
+      <c r="K81" t="n">
+        <v>121.8415915903598</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4279096847.060565</v>
+        <v>4333960664.018068</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1443255011231404</v>
+        <v>0.142347231269934</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01850341900480293</v>
+        <v>0.02196083733255211</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>105</v>
+      </c>
+      <c r="J82" t="n">
+        <v>146</v>
+      </c>
+      <c r="K82" t="n">
+        <v>150.0117452116224</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1675144293.067254</v>
+        <v>1596868525.717014</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1493069900353489</v>
+        <v>0.1255505961097342</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04357213889802657</v>
+        <v>0.04322072272828108</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1876366532.387951</v>
+        <v>2287649946.561592</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1188856606066174</v>
+        <v>0.1008976100407579</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03418781559073109</v>
+        <v>0.03315111576712637</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3077969641.965689</v>
+        <v>2476581595.812978</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1612075037598416</v>
+        <v>0.1362205800421338</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05000378651903033</v>
+        <v>0.03761109428414351</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2547856733.591003</v>
+        <v>2031447025.605236</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1454668810737629</v>
+        <v>0.1685491187629177</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02759636533553325</v>
+        <v>0.01915619371203205</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>924415326.7015338</v>
+        <v>1117914999.344164</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1151317477977933</v>
+        <v>0.1875068421615875</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02953006471176894</v>
+        <v>0.03964339983688624</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3733238430.954699</v>
+        <v>2687848378.060371</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1190932179218419</v>
+        <v>0.125216654639792</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03055038291679871</v>
+        <v>0.03696007178932125</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2385142647.26269</v>
+        <v>3319222091.466</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1062774197469228</v>
+        <v>0.1336899229423955</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02556708960124714</v>
+        <v>0.02767520830232791</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>146</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3613,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1377356973.015688</v>
+        <v>2007590797.082147</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1076675441844752</v>
+        <v>0.1070597726157769</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03723022317726208</v>
+        <v>0.05042489591249497</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3648,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1940871797.625376</v>
+        <v>1477465310.444905</v>
       </c>
       <c r="F91" t="n">
-        <v>0.18535947813446</v>
+        <v>0.1365198765740444</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05575825494276079</v>
+        <v>0.03771544387419661</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2040766016.076471</v>
+        <v>2826865585.483236</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09263164309205568</v>
+        <v>0.08405235860200469</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04126317170848783</v>
+        <v>0.02920762724783161</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3718,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4174529200.75802</v>
+        <v>4783946918.907628</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1399867060036792</v>
+        <v>0.09518114480595731</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03704509418403981</v>
+        <v>0.04640157073240755</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>66</v>
+      </c>
+      <c r="J93" t="n">
+        <v>145</v>
+      </c>
+      <c r="K93" t="n">
+        <v>132.5016071827577</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2147960593.369653</v>
+        <v>2521168758.818679</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1332756022147429</v>
+        <v>0.1231152542123081</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03032921421498493</v>
+        <v>0.02787613673172493</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3013122374.13381</v>
+        <v>2686241407.490607</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1037360421279251</v>
+        <v>0.08378726160409085</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03249837136415729</v>
+        <v>0.0507665071643844</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1517254057.849676</v>
+        <v>1642877427.454666</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1096945619840973</v>
+        <v>0.1177164970193238</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03590742412778813</v>
+        <v>0.03755121280272715</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4264901321.807356</v>
+        <v>5120960677.939147</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1734659671357812</v>
+        <v>0.1116059576497343</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01888174038162514</v>
+        <v>0.02831619942053342</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>70</v>
+      </c>
+      <c r="J97" t="n">
+        <v>145</v>
+      </c>
+      <c r="K97" t="n">
+        <v>137.6172433346209</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3047729560.849458</v>
+        <v>3410490407.214861</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08506520143624012</v>
+        <v>0.1042340293726052</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02327277830800016</v>
+        <v>0.03289790281588417</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>34</v>
+      </c>
+      <c r="J98" t="n">
+        <v>145</v>
+      </c>
+      <c r="K98" t="n">
+        <v>82.02484732023805</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3208440795.642031</v>
+        <v>2646227685.144694</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09475920222543296</v>
+        <v>0.1083892476974497</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02252668452634744</v>
+        <v>0.03061509674891146</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3969,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3710623892.903188</v>
+        <v>4032679194.973414</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1220856754977569</v>
+        <v>0.1263764036081445</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02057977188873259</v>
+        <v>0.02675754203338768</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>60</v>
+      </c>
+      <c r="J100" t="n">
+        <v>146</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2626257325.529871</v>
+        <v>2309060620.957946</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1384730559914923</v>
+        <v>0.2121127185529927</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03926596966659796</v>
+        <v>0.0461061095573662</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>145</v>
+      </c>
+      <c r="K101" t="n">
+        <v>41.92434107385819</v>
       </c>
     </row>
   </sheetData>
